--- a/biology/Botanique/Forêt_en_Flandre/Forêt_en_Flandre.xlsx
+++ b/biology/Botanique/Forêt_en_Flandre/Forêt_en_Flandre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_en_Flandre</t>
+          <t>Forêt_en_Flandre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt flamande couvre approximativement 1 500 km2, ce qui représente 11 % de son territoire. 
 On y trouve une petite majorité de feuillus. L'essence feuillue la plus courante est le Peuplier, devant le Chêne et le Hêtre commun. Les essences résineuses les plus fréquentes sont le Pin sylvestre - qui constitue à lui seul 28 % du volume sur pied - et le Pin noir. 
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_en_Flandre</t>
+          <t>Forêt_en_Flandre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Forest ans Forestry in European Union Countries, Forest Research Institute, Varsovie, 2006
  Portail du bois et de la forêt   Portail de la Région flamande                    </t>
